--- a/biology/Botanique/Catopsis_nutans/Catopsis_nutans.xlsx
+++ b/biology/Botanique/Catopsis_nutans/Catopsis_nutans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsis nutans est une espèce de plantes à fleurs de la famille des Bromeliaceae. C'est une plante tropicale largement répandue en Amérique du Nord, en Amérique centrale, en Amérique du Sud et dans la Caraïbe et décrite en 1864.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Catopsis fulgens Griseb.
@@ -552,9 +566,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement répandu en Amérique du Nord, notamment aux États-Unis (Floride), au Mexique, en Amérique centrale, notamment au Belize, au Costa Rica,au Guatemala, au Honduras, au Nicaragua, au Panama et Salvador, dans la partie septentrionale de l'Amérique du Sud, notamment en Colombie, en Équateur et au Venezuela et enfin, dans la Caraïbe, notamment à Cuba, à la Jamaïque et enfin sur l'île d'Hispaniola comprenant la République dominicaine et Haïti[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement répandu en Amérique du Nord, notamment aux États-Unis (Floride), au Mexique, en Amérique centrale, notamment au Belize, au Costa Rica,au Guatemala, au Honduras, au Nicaragua, au Panama et Salvador, dans la partie septentrionale de l'Amérique du Sud, notamment en Colombie, en Équateur et au Venezuela et enfin, dans la Caraïbe, notamment à Cuba, à la Jamaïque et enfin sur l'île d'Hispaniola comprenant la République dominicaine et Haïti. 
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
